--- a/report/results/hyperparameter_tuning/model1_tuning.xlsx
+++ b/report/results/hyperparameter_tuning/model1_tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattc\Documents\DL-reservoir-modeling\report\results\hyperparameter_tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E92EB7-1BED-4DC0-8DBF-CA9B72377E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58CC3D3-744F-4CD0-A46E-B7F5ECB979C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="7944" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Inflow, DOY</t>
   </si>
   <si>
-    <t>Layers</t>
-  </si>
-  <si>
     <t>Hidden size (LSTM)</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Validation loss</t>
+  </si>
+  <si>
+    <t>LSTM Layers</t>
   </si>
 </sst>
 </file>
@@ -110,10 +110,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -410,14 +410,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -437,22 +437,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -696,22 +696,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>77</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0.33400000000000002</v>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>2</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>35</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>35</v>
       </c>
-      <c r="D25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="2">
         <v>91</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>0.314</v>
       </c>
     </row>
